--- a/Code/Results/Cases/Case_5_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.021729369217422</v>
+        <v>1.054472091178195</v>
       </c>
       <c r="D2">
-        <v>1.033045656001177</v>
+        <v>1.052062178747892</v>
       </c>
       <c r="E2">
-        <v>1.03167728255158</v>
+        <v>1.060214665458465</v>
       </c>
       <c r="F2">
-        <v>1.035090032705402</v>
+        <v>1.069049703663304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049984782066593</v>
+        <v>1.044997968271764</v>
       </c>
       <c r="J2">
-        <v>1.043279029584926</v>
+        <v>1.059484010098365</v>
       </c>
       <c r="K2">
-        <v>1.044063036926731</v>
+        <v>1.05481195174809</v>
       </c>
       <c r="L2">
-        <v>1.042712261136636</v>
+        <v>1.062942053370013</v>
       </c>
       <c r="M2">
-        <v>1.046081230704411</v>
+        <v>1.071753249373306</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027494279192696</v>
+        <v>1.055658446177062</v>
       </c>
       <c r="D3">
-        <v>1.037264626667347</v>
+        <v>1.052942796986936</v>
       </c>
       <c r="E3">
-        <v>1.036738473924885</v>
+        <v>1.061308740310813</v>
       </c>
       <c r="F3">
-        <v>1.040846610541158</v>
+        <v>1.070313874540435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051897264453141</v>
+        <v>1.045327820263063</v>
       </c>
       <c r="J3">
-        <v>1.04726248616164</v>
+        <v>1.060320512765051</v>
       </c>
       <c r="K3">
-        <v>1.047441908245259</v>
+        <v>1.055505166449624</v>
       </c>
       <c r="L3">
-        <v>1.046921906130561</v>
+        <v>1.063849803412116</v>
       </c>
       <c r="M3">
-        <v>1.050982223646816</v>
+        <v>1.072832404193492</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031134671565393</v>
+        <v>1.056425902941882</v>
       </c>
       <c r="D4">
-        <v>1.039931518266124</v>
+        <v>1.05351237266286</v>
       </c>
       <c r="E4">
-        <v>1.039940237995844</v>
+        <v>1.062016841348913</v>
       </c>
       <c r="F4">
-        <v>1.044489626567164</v>
+        <v>1.07113235149337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053095237008722</v>
+        <v>1.045539949128471</v>
       </c>
       <c r="J4">
-        <v>1.049774141662531</v>
+        <v>1.060861044696931</v>
       </c>
       <c r="K4">
-        <v>1.049570757077734</v>
+        <v>1.055952842410645</v>
       </c>
       <c r="L4">
-        <v>1.049579381268443</v>
+        <v>1.06443674494024</v>
       </c>
       <c r="M4">
-        <v>1.054079190646415</v>
+        <v>1.073530600518336</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.032644516080478</v>
+        <v>1.056748496868093</v>
       </c>
       <c r="D5">
-        <v>1.04103818812494</v>
+        <v>1.053751764486733</v>
       </c>
       <c r="E5">
-        <v>1.041269493131579</v>
+        <v>1.062314566614622</v>
       </c>
       <c r="F5">
-        <v>1.046002417976932</v>
+        <v>1.071476553976797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053589720815339</v>
+        <v>1.045628815433396</v>
       </c>
       <c r="J5">
-        <v>1.050814891234461</v>
+        <v>1.061088107726274</v>
       </c>
       <c r="K5">
-        <v>1.050452484534115</v>
+        <v>1.05614083521901</v>
       </c>
       <c r="L5">
-        <v>1.050681325234232</v>
+        <v>1.064683392279685</v>
       </c>
       <c r="M5">
-        <v>1.055364118495745</v>
+        <v>1.07382410207484</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032896845330372</v>
+        <v>1.056802659221685</v>
       </c>
       <c r="D6">
-        <v>1.041223170026361</v>
+        <v>1.053791956051097</v>
       </c>
       <c r="E6">
-        <v>1.041491718657859</v>
+        <v>1.0623645583456</v>
       </c>
       <c r="F6">
-        <v>1.046255348081574</v>
+        <v>1.071534353857305</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053672219555753</v>
+        <v>1.045643718151541</v>
       </c>
       <c r="J6">
-        <v>1.050988766772003</v>
+        <v>1.061126222277336</v>
       </c>
       <c r="K6">
-        <v>1.050599768725023</v>
+        <v>1.056172387731416</v>
       </c>
       <c r="L6">
-        <v>1.050865469824594</v>
+        <v>1.064724799446275</v>
       </c>
       <c r="M6">
-        <v>1.055578885452944</v>
+        <v>1.073873381127233</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031154925828532</v>
+        <v>1.056430213632117</v>
       </c>
       <c r="D7">
-        <v>1.039946361808546</v>
+        <v>1.053515571654665</v>
       </c>
       <c r="E7">
-        <v>1.039958064490832</v>
+        <v>1.062020819411753</v>
       </c>
       <c r="F7">
-        <v>1.044509913056255</v>
+        <v>1.071136950291158</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05310187984549</v>
+        <v>1.045541137792552</v>
       </c>
       <c r="J7">
-        <v>1.049788106937501</v>
+        <v>1.060864079417071</v>
       </c>
       <c r="K7">
-        <v>1.049582590116406</v>
+        <v>1.055955355204836</v>
       </c>
       <c r="L7">
-        <v>1.049594164624104</v>
+        <v>1.064440041057196</v>
       </c>
       <c r="M7">
-        <v>1.054096425899204</v>
+        <v>1.073534522378374</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023696847173286</v>
+        <v>1.054873066591359</v>
       </c>
       <c r="D8">
-        <v>1.03448491198086</v>
+        <v>1.052359838425651</v>
       </c>
       <c r="E8">
-        <v>1.033403351393833</v>
+        <v>1.060584380312811</v>
       </c>
       <c r="F8">
-        <v>1.037052988181889</v>
+        <v>1.069476838813295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050639498895694</v>
+        <v>1.045109714207893</v>
       </c>
       <c r="J8">
-        <v>1.044639294699115</v>
+        <v>1.05976686408343</v>
       </c>
       <c r="K8">
-        <v>1.045217177206217</v>
+        <v>1.055046409525277</v>
       </c>
       <c r="L8">
-        <v>1.044149092344477</v>
+        <v>1.063248922030867</v>
       </c>
       <c r="M8">
-        <v>1.047753396607357</v>
+        <v>1.072117973906296</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009820592152311</v>
+        <v>1.05212761472077</v>
       </c>
       <c r="D9">
-        <v>1.024348830046484</v>
+        <v>1.050321406101122</v>
       </c>
       <c r="E9">
-        <v>1.021256511248777</v>
+        <v>1.058054385209999</v>
       </c>
       <c r="F9">
-        <v>1.02324385471014</v>
+        <v>1.066555079713012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045982208141671</v>
+        <v>1.044339462350879</v>
       </c>
       <c r="J9">
-        <v>1.035031263300408</v>
+        <v>1.057827714837714</v>
       </c>
       <c r="K9">
-        <v>1.037058841316408</v>
+        <v>1.053437962622458</v>
       </c>
       <c r="L9">
-        <v>1.034013879683606</v>
+        <v>1.061146658248612</v>
       </c>
       <c r="M9">
-        <v>1.035970746147978</v>
+        <v>1.069621101950413</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000006508798558</v>
+        <v>1.050296161562438</v>
       </c>
       <c r="D10">
-        <v>1.017202493384537</v>
+        <v>1.048961154695234</v>
       </c>
       <c r="E10">
-        <v>1.012702440854826</v>
+        <v>1.056368462766407</v>
       </c>
       <c r="F10">
-        <v>1.013524044193677</v>
+        <v>1.06460955401516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042639795030994</v>
+        <v>1.043819196306215</v>
       </c>
       <c r="J10">
-        <v>1.028219868487532</v>
+        <v>1.056531049432969</v>
       </c>
       <c r="K10">
-        <v>1.031267945910023</v>
+        <v>1.052361074897677</v>
       </c>
       <c r="L10">
-        <v>1.026846074750157</v>
+        <v>1.059742831601926</v>
       </c>
       <c r="M10">
-        <v>1.027653336934425</v>
+        <v>1.067955954523955</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956058793966859</v>
+        <v>1.049502825210934</v>
       </c>
       <c r="D11">
-        <v>1.014004708857065</v>
+        <v>1.048371835619489</v>
       </c>
       <c r="E11">
-        <v>1.008876502093802</v>
+        <v>1.055638600882923</v>
       </c>
       <c r="F11">
-        <v>1.009177466469269</v>
+        <v>1.06376764870004</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041130262907551</v>
+        <v>1.043592305466183</v>
       </c>
       <c r="J11">
-        <v>1.025162608390765</v>
+        <v>1.05596864089425</v>
       </c>
       <c r="K11">
-        <v>1.028667262884946</v>
+        <v>1.051893672619785</v>
       </c>
       <c r="L11">
-        <v>1.023632939815974</v>
+        <v>1.05913439575592</v>
       </c>
       <c r="M11">
-        <v>1.023928360000202</v>
+        <v>1.067234775882555</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9939469426240778</v>
+        <v>1.049208096796691</v>
       </c>
       <c r="D12">
-        <v>1.012800332056846</v>
+        <v>1.048152887250181</v>
       </c>
       <c r="E12">
-        <v>1.007435756280609</v>
+        <v>1.055367519411918</v>
       </c>
       <c r="F12">
-        <v>1.007540738455804</v>
+        <v>1.063455003907305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04055964738954</v>
+        <v>1.043507785362173</v>
       </c>
       <c r="J12">
-        <v>1.024009706489001</v>
+        <v>1.055759594280528</v>
       </c>
       <c r="K12">
-        <v>1.027686339191691</v>
+        <v>1.051719892024483</v>
       </c>
       <c r="L12">
-        <v>1.022421872127937</v>
+        <v>1.058908308732193</v>
       </c>
       <c r="M12">
-        <v>1.022524881867274</v>
+        <v>1.066966872589969</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9943039201951871</v>
+        <v>1.04927131924716</v>
       </c>
       <c r="D13">
-        <v>1.0130594429901</v>
+        <v>1.048199854649414</v>
       </c>
       <c r="E13">
-        <v>1.007745711234086</v>
+        <v>1.055425666346157</v>
       </c>
       <c r="F13">
-        <v>1.007892853226606</v>
+        <v>1.063522063851931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040682504221854</v>
+        <v>1.043525926204532</v>
       </c>
       <c r="J13">
-        <v>1.024257809344381</v>
+        <v>1.055804441981598</v>
       </c>
       <c r="K13">
-        <v>1.027897441165689</v>
+        <v>1.051757176104533</v>
       </c>
       <c r="L13">
-        <v>1.022682464407683</v>
+        <v>1.058956809117386</v>
       </c>
       <c r="M13">
-        <v>1.022826853487164</v>
+        <v>1.067024339931927</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9954692579469165</v>
+        <v>1.049478463859229</v>
       </c>
       <c r="D14">
-        <v>1.013905499260606</v>
+        <v>1.048353738283502</v>
       </c>
       <c r="E14">
-        <v>1.008757817804983</v>
+        <v>1.055616192768541</v>
       </c>
       <c r="F14">
-        <v>1.00904263642947</v>
+        <v>1.063741803837424</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04108330117466</v>
+        <v>1.043585323962968</v>
       </c>
       <c r="J14">
-        <v>1.025067668737111</v>
+        <v>1.055951363961104</v>
       </c>
       <c r="K14">
-        <v>1.028586489259813</v>
+        <v>1.051879311264907</v>
       </c>
       <c r="L14">
-        <v>1.023533197815628</v>
+        <v>1.059115709111322</v>
       </c>
       <c r="M14">
-        <v>1.023812761086384</v>
+        <v>1.067212631440789</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9961839827149748</v>
+        <v>1.049606086070821</v>
       </c>
       <c r="D15">
-        <v>1.014424552868067</v>
+        <v>1.048448544550085</v>
       </c>
       <c r="E15">
-        <v>1.00937876913975</v>
+        <v>1.05573358522431</v>
       </c>
       <c r="F15">
-        <v>1.009748064557444</v>
+        <v>1.063877202954436</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041328914966333</v>
+        <v>1.043621888700637</v>
       </c>
       <c r="J15">
-        <v>1.025564323122424</v>
+        <v>1.056041868450339</v>
       </c>
       <c r="K15">
-        <v>1.029009029472855</v>
+        <v>1.051954540668083</v>
       </c>
       <c r="L15">
-        <v>1.024054999577535</v>
+        <v>1.059213601093919</v>
       </c>
       <c r="M15">
-        <v>1.024417539139262</v>
+        <v>1.067328640636334</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000295243888184</v>
+        <v>1.050348806073681</v>
       </c>
       <c r="D16">
-        <v>1.017412454684222</v>
+        <v>1.049000259028266</v>
       </c>
       <c r="E16">
-        <v>1.012953678025751</v>
+        <v>1.056416904417637</v>
       </c>
       <c r="F16">
-        <v>1.013809482716</v>
+        <v>1.064665439301899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042738619939043</v>
+        <v>1.043834220291604</v>
       </c>
       <c r="J16">
-        <v>1.028420404968911</v>
+        <v>1.056568354643854</v>
       </c>
       <c r="K16">
-        <v>1.031438505233359</v>
+        <v>1.052392071536554</v>
       </c>
       <c r="L16">
-        <v>1.027056920658076</v>
+        <v>1.059783199374473</v>
       </c>
       <c r="M16">
-        <v>1.02789784117044</v>
+        <v>1.068003813294832</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002832567176703</v>
+        <v>1.050814611529737</v>
       </c>
       <c r="D17">
-        <v>1.01925830117547</v>
+        <v>1.049346248402561</v>
       </c>
       <c r="E17">
-        <v>1.015162590217755</v>
+        <v>1.056845572677898</v>
       </c>
       <c r="F17">
-        <v>1.016319179591803</v>
+        <v>1.065160017113709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043605848841241</v>
+        <v>1.043966978282587</v>
       </c>
       <c r="J17">
-        <v>1.030182327510755</v>
+        <v>1.056898351953081</v>
       </c>
       <c r="K17">
-        <v>1.032936883192475</v>
+        <v>1.052666227211551</v>
       </c>
       <c r="L17">
-        <v>1.028909886666645</v>
+        <v>1.060140339916892</v>
       </c>
       <c r="M17">
-        <v>1.030046999385326</v>
+        <v>1.068427287635777</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004298088687986</v>
+        <v>1.051086278682428</v>
       </c>
       <c r="D18">
-        <v>1.020325053725933</v>
+        <v>1.049548027207231</v>
       </c>
       <c r="E18">
-        <v>1.016439336737647</v>
+        <v>1.05709562253874</v>
       </c>
       <c r="F18">
-        <v>1.01776985313734</v>
+        <v>1.065448546292963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044105723243311</v>
+        <v>1.044044258253205</v>
       </c>
       <c r="J18">
-        <v>1.031199697049121</v>
+        <v>1.057090742814562</v>
       </c>
       <c r="K18">
-        <v>1.033801936546612</v>
+        <v>1.052826031235819</v>
       </c>
       <c r="L18">
-        <v>1.029980213544403</v>
+        <v>1.060348599076377</v>
       </c>
       <c r="M18">
-        <v>1.031288746849056</v>
+        <v>1.068674277836398</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004795389242418</v>
+        <v>1.051178905258109</v>
       </c>
       <c r="D19">
-        <v>1.020687140062718</v>
+        <v>1.049616823339727</v>
       </c>
       <c r="E19">
-        <v>1.016872731558346</v>
+        <v>1.057180885650816</v>
       </c>
       <c r="F19">
-        <v>1.018262301558737</v>
+        <v>1.065546935875442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044275171705194</v>
+        <v>1.044070582363337</v>
       </c>
       <c r="J19">
-        <v>1.031544873121752</v>
+        <v>1.057156327731295</v>
       </c>
       <c r="K19">
-        <v>1.034095409915468</v>
+        <v>1.052880502268081</v>
       </c>
       <c r="L19">
-        <v>1.030343422807531</v>
+        <v>1.060419600798656</v>
       </c>
       <c r="M19">
-        <v>1.031710183383696</v>
+        <v>1.068758492578642</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002561843110776</v>
+        <v>1.050764638057319</v>
       </c>
       <c r="D20">
-        <v>1.019061290420499</v>
+        <v>1.049309130223092</v>
       </c>
       <c r="E20">
-        <v>1.014926811395746</v>
+        <v>1.056799579097072</v>
       </c>
       <c r="F20">
-        <v>1.016051287637482</v>
+        <v>1.065106948404302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043513424289284</v>
+        <v>1.043952750696383</v>
       </c>
       <c r="J20">
-        <v>1.029994365949252</v>
+        <v>1.056862955784694</v>
       </c>
       <c r="K20">
-        <v>1.03277705092486</v>
+        <v>1.052636823908037</v>
       </c>
       <c r="L20">
-        <v>1.028712172424635</v>
+        <v>1.060102027801797</v>
       </c>
       <c r="M20">
-        <v>1.0298176467002</v>
+        <v>1.068381854431901</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9951267811766055</v>
+        <v>1.049417466275324</v>
       </c>
       <c r="D21">
-        <v>1.013656823280227</v>
+        <v>1.048308424748189</v>
       </c>
       <c r="E21">
-        <v>1.008460330329933</v>
+        <v>1.055560086896958</v>
       </c>
       <c r="F21">
-        <v>1.008704680007513</v>
+        <v>1.063677093796196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040965554703063</v>
+        <v>1.043567839508711</v>
       </c>
       <c r="J21">
-        <v>1.024829672159223</v>
+        <v>1.055908103058655</v>
       </c>
       <c r="K21">
-        <v>1.028384001244445</v>
+        <v>1.051843350109905</v>
       </c>
       <c r="L21">
-        <v>1.023283172519627</v>
+        <v>1.059068919431616</v>
       </c>
       <c r="M21">
-        <v>1.023522995075349</v>
+        <v>1.067157184999248</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9903102609412054</v>
+        <v>1.048570167306032</v>
       </c>
       <c r="D22">
-        <v>1.010162318234056</v>
+        <v>1.047678957473418</v>
       </c>
       <c r="E22">
-        <v>1.004280337580806</v>
+        <v>1.054780894002622</v>
       </c>
       <c r="F22">
-        <v>1.003956190723128</v>
+        <v>1.062778528155716</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039305968126767</v>
+        <v>1.043324425866371</v>
       </c>
       <c r="J22">
-        <v>1.021481717454532</v>
+        <v>1.055306921045502</v>
       </c>
       <c r="K22">
-        <v>1.025535110447962</v>
+        <v>1.051343497424134</v>
       </c>
       <c r="L22">
-        <v>1.019767474384107</v>
+        <v>1.058418860016444</v>
       </c>
       <c r="M22">
-        <v>1.019449680002663</v>
+        <v>1.066387038781507</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9928776244057288</v>
+        <v>1.04901936364468</v>
       </c>
       <c r="D23">
-        <v>1.012024344178762</v>
+        <v>1.048012677163748</v>
       </c>
       <c r="E23">
-        <v>1.006507526960657</v>
+        <v>1.055193947499533</v>
       </c>
       <c r="F23">
-        <v>1.006486260339948</v>
+        <v>1.063254833638198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040191409723987</v>
+        <v>1.043453597369475</v>
       </c>
       <c r="J23">
-        <v>1.023266469408111</v>
+        <v>1.055625697923545</v>
       </c>
       <c r="K23">
-        <v>1.027053917676911</v>
+        <v>1.051608570487221</v>
       </c>
       <c r="L23">
-        <v>1.021641310837746</v>
+        <v>1.058763516934851</v>
       </c>
       <c r="M23">
-        <v>1.021620448825671</v>
+        <v>1.066795322412528</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002684216215087</v>
+        <v>1.050787219008352</v>
       </c>
       <c r="D24">
-        <v>1.019150341612649</v>
+        <v>1.04932590242599</v>
       </c>
       <c r="E24">
-        <v>1.015033385678812</v>
+        <v>1.056820361569978</v>
       </c>
       <c r="F24">
-        <v>1.016172377130843</v>
+        <v>1.065130927713813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043555205360119</v>
+        <v>1.043959180010522</v>
       </c>
       <c r="J24">
-        <v>1.030079329530623</v>
+        <v>1.056878950070336</v>
       </c>
       <c r="K24">
-        <v>1.032849299760661</v>
+        <v>1.052650110323532</v>
       </c>
       <c r="L24">
-        <v>1.028801543273606</v>
+        <v>1.060119339566659</v>
       </c>
       <c r="M24">
-        <v>1.029921317737903</v>
+        <v>1.068402383787652</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013501745570491</v>
+        <v>1.052837575302802</v>
       </c>
       <c r="D25">
-        <v>1.027034318798131</v>
+        <v>1.050848615973955</v>
       </c>
       <c r="E25">
-        <v>1.024472849444544</v>
+        <v>1.058708314441935</v>
       </c>
       <c r="F25">
-        <v>1.026899385375275</v>
+        <v>1.067310010345689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047226251046824</v>
+        <v>1.044539781627034</v>
       </c>
       <c r="J25">
-        <v>1.037583111810551</v>
+        <v>1.058329714527376</v>
       </c>
       <c r="K25">
-        <v>1.03922697198718</v>
+        <v>1.053854590812245</v>
       </c>
       <c r="L25">
-        <v>1.036702773630724</v>
+        <v>1.061690548001802</v>
       </c>
       <c r="M25">
-        <v>1.039093996048774</v>
+        <v>1.070266697583149</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054472091178195</v>
+        <v>1.021729369217423</v>
       </c>
       <c r="D2">
-        <v>1.052062178747892</v>
+        <v>1.033045656001178</v>
       </c>
       <c r="E2">
-        <v>1.060214665458465</v>
+        <v>1.031677282551581</v>
       </c>
       <c r="F2">
-        <v>1.069049703663304</v>
+        <v>1.035090032705402</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044997968271764</v>
+        <v>1.049984782066594</v>
       </c>
       <c r="J2">
-        <v>1.059484010098365</v>
+        <v>1.043279029584927</v>
       </c>
       <c r="K2">
-        <v>1.05481195174809</v>
+        <v>1.044063036926732</v>
       </c>
       <c r="L2">
-        <v>1.062942053370013</v>
+        <v>1.042712261136637</v>
       </c>
       <c r="M2">
-        <v>1.071753249373306</v>
+        <v>1.046081230704412</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055658446177062</v>
+        <v>1.027494279192695</v>
       </c>
       <c r="D3">
-        <v>1.052942796986936</v>
+        <v>1.037264626667347</v>
       </c>
       <c r="E3">
-        <v>1.061308740310813</v>
+        <v>1.036738473924885</v>
       </c>
       <c r="F3">
-        <v>1.070313874540435</v>
+        <v>1.040846610541157</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045327820263063</v>
+        <v>1.051897264453141</v>
       </c>
       <c r="J3">
-        <v>1.060320512765051</v>
+        <v>1.04726248616164</v>
       </c>
       <c r="K3">
-        <v>1.055505166449624</v>
+        <v>1.047441908245258</v>
       </c>
       <c r="L3">
-        <v>1.063849803412116</v>
+        <v>1.046921906130561</v>
       </c>
       <c r="M3">
-        <v>1.072832404193492</v>
+        <v>1.050982223646816</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056425902941882</v>
+        <v>1.031134671565392</v>
       </c>
       <c r="D4">
-        <v>1.05351237266286</v>
+        <v>1.039931518266123</v>
       </c>
       <c r="E4">
-        <v>1.062016841348913</v>
+        <v>1.039940237995843</v>
       </c>
       <c r="F4">
-        <v>1.07113235149337</v>
+        <v>1.044489626567163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045539949128471</v>
+        <v>1.053095237008721</v>
       </c>
       <c r="J4">
-        <v>1.060861044696931</v>
+        <v>1.049774141662529</v>
       </c>
       <c r="K4">
-        <v>1.055952842410645</v>
+        <v>1.049570757077733</v>
       </c>
       <c r="L4">
-        <v>1.06443674494024</v>
+        <v>1.049579381268442</v>
       </c>
       <c r="M4">
-        <v>1.073530600518336</v>
+        <v>1.054079190646414</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056748496868093</v>
+        <v>1.032644516080478</v>
       </c>
       <c r="D5">
-        <v>1.053751764486733</v>
+        <v>1.041038188124941</v>
       </c>
       <c r="E5">
-        <v>1.062314566614622</v>
+        <v>1.041269493131579</v>
       </c>
       <c r="F5">
-        <v>1.071476553976797</v>
+        <v>1.046002417976933</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045628815433396</v>
+        <v>1.053589720815339</v>
       </c>
       <c r="J5">
-        <v>1.061088107726274</v>
+        <v>1.050814891234461</v>
       </c>
       <c r="K5">
-        <v>1.05614083521901</v>
+        <v>1.050452484534116</v>
       </c>
       <c r="L5">
-        <v>1.064683392279685</v>
+        <v>1.050681325234232</v>
       </c>
       <c r="M5">
-        <v>1.07382410207484</v>
+        <v>1.055364118495745</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056802659221685</v>
+        <v>1.032896845330372</v>
       </c>
       <c r="D6">
-        <v>1.053791956051097</v>
+        <v>1.041223170026361</v>
       </c>
       <c r="E6">
-        <v>1.0623645583456</v>
+        <v>1.041491718657858</v>
       </c>
       <c r="F6">
-        <v>1.071534353857305</v>
+        <v>1.046255348081573</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045643718151541</v>
+        <v>1.053672219555753</v>
       </c>
       <c r="J6">
-        <v>1.061126222277336</v>
+        <v>1.050988766772003</v>
       </c>
       <c r="K6">
-        <v>1.056172387731416</v>
+        <v>1.050599768725022</v>
       </c>
       <c r="L6">
-        <v>1.064724799446275</v>
+        <v>1.050865469824593</v>
       </c>
       <c r="M6">
-        <v>1.073873381127233</v>
+        <v>1.055578885452943</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056430213632117</v>
+        <v>1.031154925828531</v>
       </c>
       <c r="D7">
-        <v>1.053515571654665</v>
+        <v>1.039946361808545</v>
       </c>
       <c r="E7">
-        <v>1.062020819411753</v>
+        <v>1.039958064490831</v>
       </c>
       <c r="F7">
-        <v>1.071136950291158</v>
+        <v>1.044509913056254</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045541137792552</v>
+        <v>1.053101879845489</v>
       </c>
       <c r="J7">
-        <v>1.060864079417071</v>
+        <v>1.0497881069375</v>
       </c>
       <c r="K7">
-        <v>1.055955355204836</v>
+        <v>1.049582590116405</v>
       </c>
       <c r="L7">
-        <v>1.064440041057196</v>
+        <v>1.049594164624103</v>
       </c>
       <c r="M7">
-        <v>1.073534522378374</v>
+        <v>1.054096425899202</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054873066591359</v>
+        <v>1.023696847173286</v>
       </c>
       <c r="D8">
-        <v>1.052359838425651</v>
+        <v>1.034484911980861</v>
       </c>
       <c r="E8">
-        <v>1.060584380312811</v>
+        <v>1.033403351393833</v>
       </c>
       <c r="F8">
-        <v>1.069476838813295</v>
+        <v>1.03705298818189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045109714207893</v>
+        <v>1.050639498895695</v>
       </c>
       <c r="J8">
-        <v>1.05976686408343</v>
+        <v>1.044639294699116</v>
       </c>
       <c r="K8">
-        <v>1.055046409525277</v>
+        <v>1.045217177206217</v>
       </c>
       <c r="L8">
-        <v>1.063248922030867</v>
+        <v>1.044149092344477</v>
       </c>
       <c r="M8">
-        <v>1.072117973906296</v>
+        <v>1.047753396607358</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05212761472077</v>
+        <v>1.009820592152312</v>
       </c>
       <c r="D9">
-        <v>1.050321406101122</v>
+        <v>1.024348830046484</v>
       </c>
       <c r="E9">
-        <v>1.058054385209999</v>
+        <v>1.021256511248778</v>
       </c>
       <c r="F9">
-        <v>1.066555079713012</v>
+        <v>1.023243854710141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044339462350879</v>
+        <v>1.045982208141672</v>
       </c>
       <c r="J9">
-        <v>1.057827714837714</v>
+        <v>1.035031263300409</v>
       </c>
       <c r="K9">
-        <v>1.053437962622458</v>
+        <v>1.037058841316409</v>
       </c>
       <c r="L9">
-        <v>1.061146658248612</v>
+        <v>1.034013879683606</v>
       </c>
       <c r="M9">
-        <v>1.069621101950413</v>
+        <v>1.035970746147979</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050296161562438</v>
+        <v>1.000006508798557</v>
       </c>
       <c r="D10">
-        <v>1.048961154695234</v>
+        <v>1.017202493384537</v>
       </c>
       <c r="E10">
-        <v>1.056368462766407</v>
+        <v>1.012702440854826</v>
       </c>
       <c r="F10">
-        <v>1.06460955401516</v>
+        <v>1.013524044193677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043819196306215</v>
+        <v>1.042639795030993</v>
       </c>
       <c r="J10">
-        <v>1.056531049432969</v>
+        <v>1.028219868487532</v>
       </c>
       <c r="K10">
-        <v>1.052361074897677</v>
+        <v>1.031267945910023</v>
       </c>
       <c r="L10">
-        <v>1.059742831601926</v>
+        <v>1.026846074750157</v>
       </c>
       <c r="M10">
-        <v>1.067955954523955</v>
+        <v>1.027653336934425</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049502825210934</v>
+        <v>0.995605879396685</v>
       </c>
       <c r="D11">
-        <v>1.048371835619489</v>
+        <v>1.014004708857064</v>
       </c>
       <c r="E11">
-        <v>1.055638600882923</v>
+        <v>1.008876502093801</v>
       </c>
       <c r="F11">
-        <v>1.06376764870004</v>
+        <v>1.009177466469268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043592305466183</v>
+        <v>1.041130262907551</v>
       </c>
       <c r="J11">
-        <v>1.05596864089425</v>
+        <v>1.025162608390764</v>
       </c>
       <c r="K11">
-        <v>1.051893672619785</v>
+        <v>1.028667262884946</v>
       </c>
       <c r="L11">
-        <v>1.05913439575592</v>
+        <v>1.023632939815973</v>
       </c>
       <c r="M11">
-        <v>1.067234775882555</v>
+        <v>1.023928360000201</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049208096796691</v>
+        <v>0.9939469426240776</v>
       </c>
       <c r="D12">
-        <v>1.048152887250181</v>
+        <v>1.012800332056846</v>
       </c>
       <c r="E12">
-        <v>1.055367519411918</v>
+        <v>1.007435756280608</v>
       </c>
       <c r="F12">
-        <v>1.063455003907305</v>
+        <v>1.007540738455803</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043507785362173</v>
+        <v>1.04055964738954</v>
       </c>
       <c r="J12">
-        <v>1.055759594280528</v>
+        <v>1.024009706489</v>
       </c>
       <c r="K12">
-        <v>1.051719892024483</v>
+        <v>1.02768633919169</v>
       </c>
       <c r="L12">
-        <v>1.058908308732193</v>
+        <v>1.022421872127937</v>
       </c>
       <c r="M12">
-        <v>1.066966872589969</v>
+        <v>1.022524881867274</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04927131924716</v>
+        <v>0.9943039201951869</v>
       </c>
       <c r="D13">
-        <v>1.048199854649414</v>
+        <v>1.013059442990099</v>
       </c>
       <c r="E13">
-        <v>1.055425666346157</v>
+        <v>1.007745711234086</v>
       </c>
       <c r="F13">
-        <v>1.063522063851931</v>
+        <v>1.007892853226605</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043525926204532</v>
+        <v>1.040682504221854</v>
       </c>
       <c r="J13">
-        <v>1.055804441981598</v>
+        <v>1.024257809344381</v>
       </c>
       <c r="K13">
-        <v>1.051757176104533</v>
+        <v>1.027897441165689</v>
       </c>
       <c r="L13">
-        <v>1.058956809117386</v>
+        <v>1.022682464407683</v>
       </c>
       <c r="M13">
-        <v>1.067024339931927</v>
+        <v>1.022826853487163</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049478463859229</v>
+        <v>0.9954692579469175</v>
       </c>
       <c r="D14">
-        <v>1.048353738283502</v>
+        <v>1.013905499260607</v>
       </c>
       <c r="E14">
-        <v>1.055616192768541</v>
+        <v>1.008757817804985</v>
       </c>
       <c r="F14">
-        <v>1.063741803837424</v>
+        <v>1.009042636429471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043585323962968</v>
+        <v>1.041083301174661</v>
       </c>
       <c r="J14">
-        <v>1.055951363961104</v>
+        <v>1.025067668737112</v>
       </c>
       <c r="K14">
-        <v>1.051879311264907</v>
+        <v>1.028586489259814</v>
       </c>
       <c r="L14">
-        <v>1.059115709111322</v>
+        <v>1.023533197815629</v>
       </c>
       <c r="M14">
-        <v>1.067212631440789</v>
+        <v>1.023812761086385</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049606086070821</v>
+        <v>0.9961839827149745</v>
       </c>
       <c r="D15">
-        <v>1.048448544550085</v>
+        <v>1.014424552868067</v>
       </c>
       <c r="E15">
-        <v>1.05573358522431</v>
+        <v>1.00937876913975</v>
       </c>
       <c r="F15">
-        <v>1.063877202954436</v>
+        <v>1.009748064557444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043621888700637</v>
+        <v>1.041328914966333</v>
       </c>
       <c r="J15">
-        <v>1.056041868450339</v>
+        <v>1.025564323122424</v>
       </c>
       <c r="K15">
-        <v>1.051954540668083</v>
+        <v>1.029009029472854</v>
       </c>
       <c r="L15">
-        <v>1.059213601093919</v>
+        <v>1.024054999577535</v>
       </c>
       <c r="M15">
-        <v>1.067328640636334</v>
+        <v>1.024417539139262</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050348806073681</v>
+        <v>1.000295243888182</v>
       </c>
       <c r="D16">
-        <v>1.049000259028266</v>
+        <v>1.017412454684221</v>
       </c>
       <c r="E16">
-        <v>1.056416904417637</v>
+        <v>1.012953678025751</v>
       </c>
       <c r="F16">
-        <v>1.064665439301899</v>
+        <v>1.013809482715999</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043834220291604</v>
+        <v>1.042738619939043</v>
       </c>
       <c r="J16">
-        <v>1.056568354643854</v>
+        <v>1.02842040496891</v>
       </c>
       <c r="K16">
-        <v>1.052392071536554</v>
+        <v>1.031438505233359</v>
       </c>
       <c r="L16">
-        <v>1.059783199374473</v>
+        <v>1.027056920658075</v>
       </c>
       <c r="M16">
-        <v>1.068003813294832</v>
+        <v>1.027897841170439</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050814611529737</v>
+        <v>1.002832567176703</v>
       </c>
       <c r="D17">
-        <v>1.049346248402561</v>
+        <v>1.019258301175471</v>
       </c>
       <c r="E17">
-        <v>1.056845572677898</v>
+        <v>1.015162590217756</v>
       </c>
       <c r="F17">
-        <v>1.065160017113709</v>
+        <v>1.016319179591804</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043966978282587</v>
+        <v>1.043605848841241</v>
       </c>
       <c r="J17">
-        <v>1.056898351953081</v>
+        <v>1.030182327510755</v>
       </c>
       <c r="K17">
-        <v>1.052666227211551</v>
+        <v>1.032936883192475</v>
       </c>
       <c r="L17">
-        <v>1.060140339916892</v>
+        <v>1.028909886666646</v>
       </c>
       <c r="M17">
-        <v>1.068427287635777</v>
+        <v>1.030046999385327</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051086278682428</v>
+        <v>1.004298088687986</v>
       </c>
       <c r="D18">
-        <v>1.049548027207231</v>
+        <v>1.020325053725933</v>
       </c>
       <c r="E18">
-        <v>1.05709562253874</v>
+        <v>1.016439336737647</v>
       </c>
       <c r="F18">
-        <v>1.065448546292963</v>
+        <v>1.01776985313734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044044258253205</v>
+        <v>1.044105723243311</v>
       </c>
       <c r="J18">
-        <v>1.057090742814562</v>
+        <v>1.031199697049121</v>
       </c>
       <c r="K18">
-        <v>1.052826031235819</v>
+        <v>1.033801936546612</v>
       </c>
       <c r="L18">
-        <v>1.060348599076377</v>
+        <v>1.029980213544403</v>
       </c>
       <c r="M18">
-        <v>1.068674277836398</v>
+        <v>1.031288746849057</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051178905258109</v>
+        <v>1.004795389242416</v>
       </c>
       <c r="D19">
-        <v>1.049616823339727</v>
+        <v>1.020687140062716</v>
       </c>
       <c r="E19">
-        <v>1.057180885650816</v>
+        <v>1.016872731558345</v>
       </c>
       <c r="F19">
-        <v>1.065546935875442</v>
+        <v>1.018262301558735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044070582363337</v>
+        <v>1.044275171705193</v>
       </c>
       <c r="J19">
-        <v>1.057156327731295</v>
+        <v>1.03154487312175</v>
       </c>
       <c r="K19">
-        <v>1.052880502268081</v>
+        <v>1.034095409915467</v>
       </c>
       <c r="L19">
-        <v>1.060419600798656</v>
+        <v>1.03034342280753</v>
       </c>
       <c r="M19">
-        <v>1.068758492578642</v>
+        <v>1.031710183383694</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050764638057319</v>
+        <v>1.002561843110777</v>
       </c>
       <c r="D20">
-        <v>1.049309130223092</v>
+        <v>1.0190612904205</v>
       </c>
       <c r="E20">
-        <v>1.056799579097072</v>
+        <v>1.014926811395747</v>
       </c>
       <c r="F20">
-        <v>1.065106948404302</v>
+        <v>1.016051287637484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043952750696383</v>
+        <v>1.043513424289285</v>
       </c>
       <c r="J20">
-        <v>1.056862955784694</v>
+        <v>1.029994365949254</v>
       </c>
       <c r="K20">
-        <v>1.052636823908037</v>
+        <v>1.032777050924862</v>
       </c>
       <c r="L20">
-        <v>1.060102027801797</v>
+        <v>1.028712172424637</v>
       </c>
       <c r="M20">
-        <v>1.068381854431901</v>
+        <v>1.029817646700202</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049417466275324</v>
+        <v>0.995126781176605</v>
       </c>
       <c r="D21">
-        <v>1.048308424748189</v>
+        <v>1.013656823280227</v>
       </c>
       <c r="E21">
-        <v>1.055560086896958</v>
+        <v>1.008460330329932</v>
       </c>
       <c r="F21">
-        <v>1.063677093796196</v>
+        <v>1.008704680007512</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043567839508711</v>
+        <v>1.040965554703063</v>
       </c>
       <c r="J21">
-        <v>1.055908103058655</v>
+        <v>1.024829672159223</v>
       </c>
       <c r="K21">
-        <v>1.051843350109905</v>
+        <v>1.028384001244445</v>
       </c>
       <c r="L21">
-        <v>1.059068919431616</v>
+        <v>1.023283172519627</v>
       </c>
       <c r="M21">
-        <v>1.067157184999248</v>
+        <v>1.023522995075349</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048570167306032</v>
+        <v>0.990310260941205</v>
       </c>
       <c r="D22">
-        <v>1.047678957473418</v>
+        <v>1.010162318234056</v>
       </c>
       <c r="E22">
-        <v>1.054780894002622</v>
+        <v>1.004280337580806</v>
       </c>
       <c r="F22">
-        <v>1.062778528155716</v>
+        <v>1.003956190723128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043324425866371</v>
+        <v>1.039305968126767</v>
       </c>
       <c r="J22">
-        <v>1.055306921045502</v>
+        <v>1.021481717454532</v>
       </c>
       <c r="K22">
-        <v>1.051343497424134</v>
+        <v>1.025535110447962</v>
       </c>
       <c r="L22">
-        <v>1.058418860016444</v>
+        <v>1.019767474384106</v>
       </c>
       <c r="M22">
-        <v>1.066387038781507</v>
+        <v>1.019449680002663</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04901936364468</v>
+        <v>0.992877624405728</v>
       </c>
       <c r="D23">
-        <v>1.048012677163748</v>
+        <v>1.012024344178761</v>
       </c>
       <c r="E23">
-        <v>1.055193947499533</v>
+        <v>1.006507526960657</v>
       </c>
       <c r="F23">
-        <v>1.063254833638198</v>
+        <v>1.006486260339947</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043453597369475</v>
+        <v>1.040191409723988</v>
       </c>
       <c r="J23">
-        <v>1.055625697923545</v>
+        <v>1.023266469408111</v>
       </c>
       <c r="K23">
-        <v>1.051608570487221</v>
+        <v>1.027053917676911</v>
       </c>
       <c r="L23">
-        <v>1.058763516934851</v>
+        <v>1.021641310837745</v>
       </c>
       <c r="M23">
-        <v>1.066795322412528</v>
+        <v>1.02162044882567</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050787219008352</v>
+        <v>1.002684216215088</v>
       </c>
       <c r="D24">
-        <v>1.04932590242599</v>
+        <v>1.01915034161265</v>
       </c>
       <c r="E24">
-        <v>1.056820361569978</v>
+        <v>1.015033385678814</v>
       </c>
       <c r="F24">
-        <v>1.065130927713813</v>
+        <v>1.016172377130845</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043959180010522</v>
+        <v>1.043555205360119</v>
       </c>
       <c r="J24">
-        <v>1.056878950070336</v>
+        <v>1.030079329530624</v>
       </c>
       <c r="K24">
-        <v>1.052650110323532</v>
+        <v>1.032849299760662</v>
       </c>
       <c r="L24">
-        <v>1.060119339566659</v>
+        <v>1.028801543273607</v>
       </c>
       <c r="M24">
-        <v>1.068402383787652</v>
+        <v>1.029921317737904</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052837575302802</v>
+        <v>1.013501745570492</v>
       </c>
       <c r="D25">
-        <v>1.050848615973955</v>
+        <v>1.027034318798131</v>
       </c>
       <c r="E25">
-        <v>1.058708314441935</v>
+        <v>1.024472849444544</v>
       </c>
       <c r="F25">
-        <v>1.067310010345689</v>
+        <v>1.026899385375275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044539781627034</v>
+        <v>1.047226251046824</v>
       </c>
       <c r="J25">
-        <v>1.058329714527376</v>
+        <v>1.037583111810552</v>
       </c>
       <c r="K25">
-        <v>1.053854590812245</v>
+        <v>1.039226971987181</v>
       </c>
       <c r="L25">
-        <v>1.061690548001802</v>
+        <v>1.036702773630725</v>
       </c>
       <c r="M25">
-        <v>1.070266697583149</v>
+        <v>1.039093996048774</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
